--- a/ADCVD_REGRESSION_FULL_API/input_data/datapool/adcvd_regression_full_datapool.xlsx
+++ b/ADCVD_REGRESSION_FULL_API/input_data/datapool/adcvd_regression_full_datapool.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B97836A-A301-43C2-B62A-7FFFAAC7812B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC8454F-11B7-4DD0-BBFB-B1C01E47233F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="190">
   <si>
     <t>TC_TAG_001</t>
   </si>
@@ -433,9 +433,6 @@
     <t>ADCVD_Case_Type</t>
   </si>
   <si>
-    <t>CBP_Case_Number</t>
-  </si>
-  <si>
     <t>Product</t>
   </si>
   <si>
@@ -443,9 +440,6 @@
   </si>
   <si>
     <t>Country</t>
-  </si>
-  <si>
-    <t>Lock_Record</t>
   </si>
   <si>
     <t>Decision_On_How_To_Proceed</t>
@@ -801,7 +795,7 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -833,21 +827,19 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="8" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1131,18 +1123,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB437511-1739-4B07-9659-CA7E798B5DAF}">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="14.5546875" style="15"/>
+    <col min="1" max="1" width="2.77734375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="44" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="15"/>
+    <col min="4" max="4" width="34.5546875" style="15" customWidth="1"/>
+    <col min="5" max="8" width="14.5546875" style="15"/>
+    <col min="9" max="9" width="15.21875" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="15"/>
+    <col min="11" max="11" width="7" style="15" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" style="15" customWidth="1"/>
+    <col min="13" max="14" width="14.5546875" style="15"/>
+    <col min="15" max="15" width="48" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="14.5546875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:16">
       <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
@@ -1183,687 +1186,629 @@
         <v>132</v>
       </c>
       <c r="N1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="16"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="C2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="21"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="P2" s="16"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="21">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="P3" s="16"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="21">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="P4" s="16"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="Q1" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="R1" s="16"/>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="16">
+      <c r="B5" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" s="16"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="21">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="P6" s="16"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="24">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="24"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="O7" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="P7" s="16"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="21">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="J8" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="16" t="s">
+      <c r="O8" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="P8" s="16"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="21">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16" t="s">
+      <c r="I9" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="K2" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="L2" s="16" t="s">
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="21">
+        <v>9</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="K10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="R2" s="16"/>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="16">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="P10" s="16"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="21">
+        <v>10</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16" t="s">
+      <c r="F11" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="K3" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="R3" s="16"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="16">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="P11" s="16"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="21">
+        <v>11</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H12" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16" t="s">
+      <c r="I12" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="K4" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="L4" s="16" t="s">
+      <c r="P12" s="16"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="26">
+        <v>12</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="16"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="R4" s="16"/>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="16">
-        <v>4</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="L13" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="P13" s="16"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="27">
+        <v>13</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F14" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G14" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H14" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="L5" s="16" t="s">
+      <c r="I14" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="K14" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="R5" s="16"/>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="16">
-        <v>5</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="P14" s="16"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="27">
+        <v>14</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="L6" s="16" t="s">
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="K15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="16"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="R6" s="16"/>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="19">
-        <v>6</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="19"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="R7" s="16"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="16">
-        <v>7</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="R8" s="16"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="16">
-        <v>8</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="R9" s="16"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="16">
-        <v>9</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="R10" s="16"/>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="16">
-        <v>10</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="R11" s="16"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="16">
-        <v>11</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="R12" s="16"/>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="22">
-        <v>12</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="K13" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="L13" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="N13" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="O13" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="P13" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="R13" s="16"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="23">
-        <v>13</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="L14" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="R14" s="16"/>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="23">
-        <v>14</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" s="23" t="s">
+      <c r="L15" s="28"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23" t="s">
+      <c r="P15" s="16"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="27">
+        <v>15</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="L15" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="30" t="s">
+      <c r="C16" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="R15" s="16"/>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="26">
-        <v>15</v>
-      </c>
-      <c r="B16" s="27" t="s">
+      <c r="D16" s="27" t="s">
         <v>174</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>176</v>
       </c>
       <c r="E16" s="28" t="s">
         <v>24</v>
@@ -1871,31 +1816,29 @@
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="L16" s="26" t="s">
+      <c r="I16" s="27"/>
+      <c r="J16" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="K16" s="27" t="s">
         <v>11</v>
       </c>
+      <c r="L16" s="28"/>
       <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="R16" s="16"/>
+      <c r="N16" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="P16" s="16"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E16" xr:uid="{53FB12EA-7DBD-446D-B88F-EF66839884B6}">
       <formula1>FiledSelf</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P16" xr:uid="{58C77B22-4286-4767-B93E-C9BC89A4C856}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N16" xr:uid="{58C77B22-4286-4767-B93E-C9BC89A4C856}">
       <formula1>tFalse</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 H4:H14" xr:uid="{6641FE77-B077-4184-84DA-49D62746FEFE}">
@@ -1903,9 +1846,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F4:F14" xr:uid="{E83DC978-884C-408D-955E-E9B5C2E31CC1}">
       <formula1>CaseType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 M4:M14" xr:uid="{964DBD2D-59E3-47DC-8367-AB5F5F6966FA}">
-      <formula1>Yes_No</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1918,7 +1858,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1977,7 +1917,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -2001,7 +1941,7 @@
         <v>11</v>
       </c>
       <c r="K2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2026,13 +1966,13 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5546875" bestFit="1" customWidth="1"/>
@@ -2075,7 +2015,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -2090,7 +2030,7 @@
         <v>108</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2109,7 +2049,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2154,7 +2094,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -2166,7 +2106,7 @@
         <v>109</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2188,7 +2128,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2224,13 +2164,13 @@
         <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
         <v>55</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2247,8 +2187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA0E8ED-866B-4194-9F84-7C98270F145A}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C8"/>
+    <sheetView topLeftCell="J1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.88671875" defaultRowHeight="14.4"/>
@@ -2320,7 +2260,7 @@
         <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
         <v>48</v>
@@ -2346,7 +2286,7 @@
         <v>110</v>
       </c>
       <c r="Q2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2357,7 +2297,7 @@
         <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D3" t="s">
         <v>49</v>
@@ -2387,7 +2327,7 @@
         <v>110</v>
       </c>
       <c r="Q3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2398,7 +2338,7 @@
         <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D4" t="s">
         <v>50</v>
@@ -2426,7 +2366,7 @@
         <v>110</v>
       </c>
       <c r="Q4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2437,7 +2377,7 @@
         <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D5" t="s">
         <v>51</v>
@@ -2463,7 +2403,7 @@
         <v>110</v>
       </c>
       <c r="Q5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2474,7 +2414,7 @@
         <v>122</v>
       </c>
       <c r="C6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D6" t="s">
         <v>52</v>
@@ -2500,7 +2440,7 @@
         <v>110</v>
       </c>
       <c r="Q6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2511,7 +2451,7 @@
         <v>123</v>
       </c>
       <c r="C7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -2543,7 +2483,7 @@
         <v>110</v>
       </c>
       <c r="Q7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2554,7 +2494,7 @@
         <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D8" t="s">
         <v>54</v>
@@ -2578,7 +2518,7 @@
         <v>110</v>
       </c>
       <c r="Q8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2606,7 +2546,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2655,7 +2595,7 @@
         <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D2" t="s">
         <v>112</v>
@@ -2668,7 +2608,7 @@
         <v>115</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2679,7 +2619,7 @@
         <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D3" t="s">
         <v>114</v>
@@ -2692,7 +2632,7 @@
         <v>115</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ADCVD_REGRESSION_FULL_API/input_data/datapool/adcvd_regression_full_datapool.xlsx
+++ b/ADCVD_REGRESSION_FULL_API/input_data/datapool/adcvd_regression_full_datapool.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC8454F-11B7-4DD0-BBFB-B1C01E47233F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E48E71A-20FA-4803-BCA0-8448932AA1E3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="472" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression Tcs" sheetId="13" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="193">
   <si>
     <t>TC_TAG_001</t>
   </si>
@@ -322,9 +322,6 @@
     <t>Expected_Final_Signature_Before_Ext__c</t>
   </si>
   <si>
-    <t>2013-01-10</t>
-  </si>
-  <si>
     <t>2013-10-16</t>
   </si>
   <si>
@@ -617,13 +614,25 @@
   </si>
   <si>
     <t>TC_TAG_028</t>
+  </si>
+  <si>
+    <t>2013-10-01</t>
+  </si>
+  <si>
+    <t>Tolling_days</t>
+  </si>
+  <si>
+    <t>2019-02-13#2019-02-17|2018-12-19#2018-12-21|2018-12-21#2018-12-21</t>
+  </si>
+  <si>
+    <t>2019-02-01#2019-02-25|2018-12-01#2018-12-20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -702,6 +711,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -797,7 +812,6 @@
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -840,6 +854,7 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1125,713 +1140,713 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB437511-1739-4B07-9659-CA7E798B5DAF}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="44" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="15"/>
-    <col min="4" max="4" width="34.5546875" style="15" customWidth="1"/>
-    <col min="5" max="8" width="14.5546875" style="15"/>
-    <col min="9" max="9" width="15.21875" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="15"/>
-    <col min="11" max="11" width="7" style="15" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" style="15" customWidth="1"/>
-    <col min="13" max="14" width="14.5546875" style="15"/>
-    <col min="15" max="15" width="48" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="14.5546875" style="15"/>
+    <col min="1" max="1" width="2.77734375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="44" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="14"/>
+    <col min="4" max="4" width="34.5546875" style="14" customWidth="1"/>
+    <col min="5" max="8" width="14.5546875" style="14"/>
+    <col min="9" max="9" width="15.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="14"/>
+    <col min="11" max="11" width="7" style="14" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" style="14" customWidth="1"/>
+    <col min="13" max="14" width="14.5546875" style="14"/>
+    <col min="15" max="15" width="48" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="14.5546875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="P1" s="15"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="20"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="P2" s="15"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="P3" s="15"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="20"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="P4" s="15"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="P1" s="16"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="21">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="B5" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="20"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="O5" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="P5" s="15"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="21" t="s">
+      <c r="J6" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="20"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="P6" s="15"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="23">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="J2" s="21" t="s">
+      <c r="I7" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="23"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="P7" s="15"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="P8" s="15"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="K9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23" t="b">
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="O2" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="P2" s="16"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="21">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="21" t="s">
+      <c r="O9" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="P9" s="15"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23" t="b">
+      <c r="F10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="O3" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="P3" s="16"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="21">
-        <v>3</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="21" t="s">
+      <c r="O10" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="P10" s="15"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="20">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="K4" s="21" t="s">
+      <c r="I11" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="K11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23" t="b">
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="O4" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="P4" s="16"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="21">
-        <v>4</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="21" t="s">
+      <c r="O11" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="P11" s="15"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="20">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F12" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H12" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="K5" s="21" t="s">
+      <c r="I12" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="K12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23" t="b">
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="O5" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="P5" s="16"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="21">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="21" t="s">
+      <c r="O12" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="P12" s="15"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="25">
+        <v>12</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F13" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G13" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H13" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="K6" s="21" t="s">
+      <c r="I13" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="K13" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23" t="b">
+      <c r="L13" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="O6" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="P6" s="16"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="24">
-        <v>6</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="24" t="s">
+      <c r="O13" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="P13" s="15"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="26">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="P14" s="15"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="26">
+        <v>14</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="K7" s="24" t="s">
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="K15" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="O7" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="P7" s="16"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="21">
-        <v>7</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8" s="21" t="s">
+      <c r="L15" s="27"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="P15" s="15"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="26">
+        <v>15</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="K8" s="21" t="s">
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="K16" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="23" t="b">
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="O8" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="P8" s="16"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="21">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="P9" s="16"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="21">
-        <v>9</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="O10" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="P10" s="16"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="21">
-        <v>10</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="O11" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="P11" s="16"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="21">
-        <v>11</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="O12" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="P12" s="16"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="26">
-        <v>12</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="J13" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="K13" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="M13" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="N13" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="O13" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="P13" s="16"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="27">
-        <v>13</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="K14" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="O14" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="P14" s="16"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="27">
-        <v>14</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="K15" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="28"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="O15" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="P15" s="16"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="27">
-        <v>15</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27" t="s">
+      <c r="O16" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="K16" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="O16" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="P16" s="16"/>
+      <c r="P16" s="15"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -1858,7 +1873,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1875,73 +1890,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="b">
-        <v>0</v>
+      <c r="K2" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1963,10 +1978,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E1BF9E-56F6-4D1C-9634-CCEBEDE2F341}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1976,66 +1991,72 @@
     <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.5546875" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
+      <c r="G2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{0BA48D5E-EF0C-4BD9-BAB9-ADC12956A074}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{0BA48D5E-EF0C-4BD9-BAB9-ADC12956A074}">
       <formula1>tFalse</formula1>
     </dataValidation>
   </dataValidations>
@@ -2046,10 +2067,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93142D5-A61C-4810-9B09-B1B38A7BBBFB}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2059,34 +2080,37 @@
     <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2094,7 +2118,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -2102,11 +2126,14 @@
       <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
+      <c r="F2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2114,7 +2141,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{90D05635-8350-4236-9E00-6F2638D05A18}">
       <formula1>InvType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{B6B3DE11-5574-4A81-AEC9-9CA8D76F0219}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{B6B3DE11-5574-4A81-AEC9-9CA8D76F0219}">
       <formula1>tFalse</formula1>
     </dataValidation>
   </dataValidations>
@@ -2140,19 +2167,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2164,13 +2191,13 @@
         <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D2" t="s">
         <v>55</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2185,10 +2212,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA0E8ED-866B-4194-9F84-7C98270F145A}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="R6" sqref="R2:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.88671875" defaultRowHeight="14.4"/>
@@ -2196,71 +2223,75 @@
     <col min="1" max="1" width="5.77734375" customWidth="1"/>
     <col min="2" max="2" width="58.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.44140625" customWidth="1"/>
+    <col min="6" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="34.44140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17.399999999999999" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:18" ht="38.4" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="P1" s="5" t="s">
+      <c r="O1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
         <v>48</v>
@@ -2268,36 +2299,39 @@
       <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
         <v>49</v>
@@ -2305,40 +2339,43 @@
       <c r="E3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D4" t="s">
         <v>50</v>
@@ -2346,38 +2383,41 @@
       <c r="E4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D5" t="s">
         <v>51</v>
@@ -2385,36 +2425,39 @@
       <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
         <v>52</v>
@@ -2422,36 +2465,39 @@
       <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -2459,42 +2505,45 @@
       <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D8" t="s">
         <v>54</v>
@@ -2502,34 +2551,39 @@
       <c r="E8" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="O9" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E8" xr:uid="{1588DF4E-2723-45C2-AD66-A865CE7C4630}">
       <formula1>segType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q8" xr:uid="{0901349C-F2BA-4B4C-AD54-C646D35439A9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R8" xr:uid="{0901349C-F2BA-4B4C-AD54-C646D35439A9}">
       <formula1>tFalse</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I4" xr:uid="{4CAC663F-4BD7-4446-AAEE-32416BF557D8}">
@@ -2543,10 +2597,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BC1DEC-7B51-4AFE-BA57-09949D5224CD}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2557,87 +2611,95 @@
     <col min="4" max="4" width="25.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.88671875" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" ht="24" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="G2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
+      <c r="I3" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H3" xr:uid="{C1FC066B-9684-4B7F-9E26-565A8B0F771B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3" xr:uid="{C1FC066B-9684-4B7F-9E26-565A8B0F771B}">
       <formula1>tFalse</formula1>
     </dataValidation>
   </dataValidations>
@@ -2650,38 +2712,38 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="38.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D2" t="b">
@@ -2689,13 +2751,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1">
-      <c r="A3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="A3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>64</v>
       </c>
       <c r="D3" t="b">
@@ -2703,13 +2765,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D4" t="b">
@@ -2717,13 +2779,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>66</v>
       </c>
       <c r="D5" t="b">
@@ -2731,13 +2793,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>67</v>
       </c>
       <c r="D6" t="b">
@@ -2775,7 +2837,7 @@
       <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D1" t="s">
@@ -2784,7 +2846,7 @@
       <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G1" t="b">
@@ -2798,7 +2860,7 @@
       <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D2" t="s">
@@ -2807,7 +2869,7 @@
       <c r="E2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G2" t="b">
@@ -2830,7 +2892,7 @@
       <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G3" t="s">
@@ -2841,27 +2903,27 @@
       <c r="E4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>39</v>
       </c>
     </row>
